--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.013877766622477</v>
+        <v>6.080004389764944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4004332527224005</v>
+        <v>0.4061728874939541</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1511551103674587</v>
+        <v>0.1545592625210105</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.620427504213564</v>
+        <v>6.615497779074582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4352991905344026</v>
+        <v>0.43498359868505</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1705642489432339</v>
+        <v>0.1705693521403999</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.728769779106237</v>
+        <v>6.766935207396722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3834132358204451</v>
+        <v>0.4327670538139148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1471264812484264</v>
+        <v>0.1711055317711085</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.584826024959732</v>
+        <v>6.892679830096974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4322333445557552</v>
+        <v>0.4393148911267929</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1693883351453731</v>
+        <v>0.1752676381376917</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.669651687993242</v>
+        <v>6.673342375452703</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3792396615971649</v>
+        <v>0.4280016368867685</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1459352730829202</v>
+        <v>0.1683913495262405</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.713913496631781</v>
+        <v>6.76708114524075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3816011288625984</v>
+        <v>0.4327466986580971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1450081956811513</v>
+        <v>0.1711007300176219</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.915504024365446</v>
+        <v>6.689366826931316</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3962151926296516</v>
+        <v>0.4276303879095303</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1509469139365704</v>
+        <v>0.168996455182853</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.080004389764944</v>
+        <v>6.815712460670747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4061728874939541</v>
+        <v>0.4364600661873373</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1545592625210105</v>
+        <v>0.1721991480554537</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.604215476144843</v>
+        <v>6.830227333786343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4339104886948405</v>
+        <v>0.4357308153850482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1697998013769325</v>
+        <v>0.1742815462068156</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.615497779074582</v>
+        <v>6.860036178927444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.43498359868505</v>
+        <v>0.4375345412564952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1705693521403999</v>
+        <v>0.1747967324202745</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.97966703448636</v>
+        <v>6.844051878512294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4269645194056881</v>
+        <v>0.5770060092793938</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1146191915947487</v>
+        <v>0.1645375572346129</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.344773146276111</v>
+        <v>12.5103539265924</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6900549770059162</v>
+        <v>0.9160912957346494</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231028473060324</v>
+        <v>0.3269178364219893</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.543306256338791</v>
+        <v>13.17977823023785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7068477185145167</v>
+        <v>0.9773290111332876</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2339922541468233</v>
+        <v>0.3409557376597077</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.117092615669071</v>
+        <v>9.227418865621519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6767417848678565</v>
+        <v>0.6422609209294532</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2046919978940362</v>
+        <v>0.2073114197835011</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.844051878512294</v>
+        <v>6.98688636014879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5770060092793938</v>
+        <v>0.5892677077048385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1645375572346129</v>
+        <v>0.1647632080170712</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.5103539265924</v>
+        <v>12.27302638013952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9160912957346494</v>
+        <v>0.8946326627595846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3269178364219893</v>
+        <v>0.3220763147214891</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.17977823023785</v>
+        <v>12.78869675399641</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9773290111332876</v>
+        <v>0.941386187673101</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3409557376597077</v>
+        <v>0.3324269317040699</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.227418865621519</v>
+        <v>9.27364970360299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6422609209294532</v>
+        <v>0.646240030457338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2073114197835011</v>
+        <v>0.2080109781207875</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.35861050978391</v>
+        <v>12.31746356763626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9023540702565178</v>
+        <v>0.8986329516384043</v>
       </c>
       <c r="D11" t="n">
-        <v>0.323811866458195</v>
+        <v>0.3229537599199145</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.31746356763626</v>
+        <v>12.36328839708932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8986329516384043</v>
+        <v>0.9027778041611597</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3229537599199145</v>
+        <v>0.3239130575740553</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.36328839708932</v>
+        <v>12.37397400373451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9027778041611597</v>
+        <v>0.9037409074221011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3239130575740553</v>
+        <v>0.3241167355506037</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.37397400373451</v>
+        <v>12.36395846450493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9037409074221011</v>
+        <v>0.9028344972201455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3241167355506037</v>
+        <v>0.3239072894221358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.766935207396722</v>
+        <v>6.766537292551774</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4327670538139148</v>
+        <v>0.4327396320674364</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1711055317711085</v>
+        <v>0.1711009471413806</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.852201533957361</v>
+        <v>6.85316017799245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4364014820355027</v>
+        <v>0.4365973322194195</v>
       </c>
       <c r="D3" t="n">
-        <v>0.174644826438496</v>
+        <v>0.1747177578044922</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.673342375452703</v>
+        <v>6.646464101060019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4280016368867685</v>
+        <v>0.4310185375773051</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1683913495262405</v>
+        <v>0.1574258140509318</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.76708114524075</v>
+        <v>6.763488356232386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4327466986580971</v>
+        <v>0.4325739818359222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1711007300176219</v>
+        <v>0.1710019310040521</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.689366826931316</v>
+        <v>6.682126409844651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4276303879095303</v>
+        <v>0.4271785410603205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.168996455182853</v>
+        <v>0.1688339041538008</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.815712460670747</v>
+        <v>6.765163772172428</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4364600661873373</v>
+        <v>0.4335748868622296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1721991480554537</v>
+        <v>0.1708543212434648</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.856085296930363</v>
+        <v>6.84268968645353</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4362237034849766</v>
+        <v>0.4359267876419518</v>
       </c>
       <c r="D8" t="n">
-        <v>0.174895512109898</v>
+        <v>0.174668372432831</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.818217504860953</v>
+        <v>6.903159136845797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.43456831777284</v>
+        <v>0.4394276996103377</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1738437650128912</v>
+        <v>0.1759852485716706</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.36395846450493</v>
+        <v>12.32734286866446</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9028344972201455</v>
+        <v>0.8995281028207129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3239072894221358</v>
+        <v>0.3231704166617374</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.69939952901646</v>
+        <v>12.63378206628684</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9334099504821796</v>
+        <v>0.9275523369901773</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3312969945359412</v>
+        <v>0.3298515227982064</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.766537292551774</v>
+        <v>13.5329288086622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4327396320674364</v>
+        <v>0.4328203592188241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1711009471413806</v>
+        <v>0.1710992016987619</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.85316017799245</v>
+        <v>13.69637873610568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4365973322194195</v>
+        <v>0.4362631127536765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1747177578044922</v>
+        <v>0.1745885059245473</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.646464101060019</v>
+        <v>12.89931777220609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4310185375773051</v>
+        <v>0.4163432868809911</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1574258140509318</v>
+        <v>0.1612926162858211</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.763488356232386</v>
+        <v>13.52762172533712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4325739818359222</v>
+        <v>0.4325829017254018</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1710019310040521</v>
+        <v>0.171062798255866</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.682126409844651</v>
+        <v>13.37110570277586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4271785410603205</v>
+        <v>0.4273627990649952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1688339041538008</v>
+        <v>0.1689045568918346</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.765163772172428</v>
+        <v>13.76800810143645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4335748868622296</v>
+        <v>0.4397364182267849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1708543212434648</v>
+        <v>0.173444895497884</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.84268968645353</v>
+        <v>13.68553518705244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4359267876419518</v>
+        <v>0.4359086425633312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.174668372432831</v>
+        <v>0.1746838762583493</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.903159136845797</v>
+        <v>13.70109731454629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4394276996103377</v>
+        <v>0.4363154044557616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1759852485716706</v>
+        <v>0.1749002203820231</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.98688636014879</v>
+        <v>13.97377272029755</v>
       </c>
       <c r="C10" t="n">
         <v>0.5892677077048385</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.32734286866446</v>
+        <v>24.67843426620669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8995281028207129</v>
+        <v>0.9005992139608232</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3231704166617374</v>
+        <v>0.3234054992700865</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.63378206628684</v>
+        <v>25.26756413257369</v>
       </c>
       <c r="C12" t="n">
         <v>0.9275523369901773</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.369273820108399</v>
+        <v>18.73854764021679</v>
       </c>
       <c r="C13" t="n">
         <v>0.6513626670740793</v>

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="C11" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_treino.xlsx
+++ b/Modelos em Python/30_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="C11" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="12">
